--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3868968.498362443</v>
+        <v>3869032.308011184</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12312240.94883847</v>
+        <v>12314715.80046107</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7037.935912637889</v>
+        <v>7650.327297125153</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7307737.650492763</v>
+        <v>7307085.066127507</v>
       </c>
     </row>
     <row r="11">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="G5" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>6.05642108929943</v>
+        <v>4.700056202083415</v>
       </c>
       <c r="X5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.876045741711437</v>
+        <v>4.700056202083417</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>4.700056202083415</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="W9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>6.05642108929943</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C11" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D11" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E11" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F11" t="n">
         <v>375.2658433894975</v>
@@ -1387,7 +1387,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H11" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T11" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V11" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W11" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651969</v>
       </c>
       <c r="X11" t="n">
         <v>338.1208983262551</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T12" t="n">
         <v>189.0833237787849</v>
@@ -1536,7 +1536,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E13" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F13" t="n">
         <v>113.8108456707173</v>
@@ -1545,10 +1545,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H13" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I13" t="n">
-        <v>54.52629139453031</v>
+        <v>54.52629139452997</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S13" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T13" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U13" t="n">
         <v>254.5831063612652</v>
@@ -1596,7 +1596,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="14">
@@ -1660,10 +1660,10 @@
         <v>60.32014642295178</v>
       </c>
       <c r="T14" t="n">
-        <v>168.9926026545717</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U14" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645668</v>
       </c>
       <c r="V14" t="n">
         <v>296.142056117921</v>
@@ -1785,7 +1785,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I16" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S16" t="n">
         <v>152.2386502424833</v>
@@ -1821,7 +1821,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U16" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V16" t="n">
         <v>220.5274409716141</v>
@@ -1846,7 +1846,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1855,13 +1855,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947548</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>168.9926026545723</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -2004,25 +2004,25 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453003</v>
+        <v>54.5262913945306</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
         <v>220.527440971614</v>
@@ -2067,7 +2067,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998808</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2134,13 +2134,13 @@
         <v>60.32014642295175</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645686</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V20" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W20" t="n">
         <v>317.6307663651991</v>
@@ -2149,7 +2149,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2247,7 +2247,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2259,7 +2259,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W22" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U23" t="n">
-        <v>219.324384064569</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2496,7 +2496,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2733,7 +2733,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139452955</v>
+        <v>54.52629139452893</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545726</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645699</v>
@@ -2860,7 +2860,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2967,10 +2967,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442993</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453007</v>
+        <v>54.52629139452934</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C32" t="n">
         <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894974</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545717</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645686</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W32" t="n">
         <v>317.630766365199</v>
@@ -3097,7 +3097,7 @@
         <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="33">
@@ -3195,7 +3195,7 @@
         <v>117.0052706659983</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707172</v>
@@ -3207,7 +3207,7 @@
         <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453003</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295159</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545722</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179208</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651989</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262549</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E37" t="n">
-        <v>114.823760294355</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G37" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139452993</v>
+        <v>54.52629139453005</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221561</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T37" t="n">
         <v>186.4872700401419</v>
@@ -3483,16 +3483,16 @@
         <v>254.583106361265</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X37" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>351.1236393112665</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684689</v>
+        <v>323.0728392684688</v>
       </c>
       <c r="E38" t="n">
         <v>350.3201677200477</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894973</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247496</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295162</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545722</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645681</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V38" t="n">
         <v>296.1420561179208</v>
       </c>
       <c r="W38" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651989</v>
       </c>
       <c r="X38" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262549</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038395</v>
@@ -3663,25 +3663,25 @@
         <v>148.2217778297232</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464137</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659982</v>
       </c>
       <c r="E40" t="n">
         <v>114.8237602943551</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707171</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510281</v>
+        <v>134.075898551028</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442995</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453002</v>
+        <v>54.52629139452995</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221567</v>
+        <v>42.04747230221561</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424831</v>
       </c>
       <c r="T40" t="n">
         <v>186.4872700401419</v>
@@ -3726,7 +3726,7 @@
         <v>254.9127959843769</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368231</v>
+        <v>194.099453036823</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998807</v>
@@ -3757,7 +3757,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947557</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
         <v>219.3243840645688</v>
@@ -3805,7 +3805,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262546</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
@@ -3918,7 +3918,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453023</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368232</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642294995</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4073,10 +4073,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H45" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
@@ -4155,7 +4155,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4191,13 +4191,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612646</v>
       </c>
       <c r="V46" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W46" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
         <v>194.0994530368232</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.44108515774386</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="C5" t="n">
-        <v>14.44108515774386</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="D5" t="n">
-        <v>14.44108515774386</v>
+        <v>11.20693407206928</v>
       </c>
       <c r="E5" t="n">
-        <v>14.44108515774386</v>
+        <v>11.20693407206928</v>
       </c>
       <c r="F5" t="n">
-        <v>7.495584408540386</v>
+        <v>5.816911913513453</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="L5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="M5" t="n">
-        <v>14.16465422792556</v>
+        <v>5.709650472558192</v>
       </c>
       <c r="N5" t="n">
-        <v>20.69689768255142</v>
+        <v>10.77896631267995</v>
       </c>
       <c r="O5" t="n">
-        <v>27.50418296684575</v>
+        <v>16.06172703028052</v>
       </c>
       <c r="P5" t="n">
-        <v>27.50418296684575</v>
+        <v>16.06172703028052</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="R5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="V5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="W5" t="n">
-        <v>21.38658590694733</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="X5" t="n">
-        <v>14.44108515774386</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>16.59695623062511</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.55868221764227</v>
+        <v>15.95446558932526</v>
       </c>
       <c r="C6" t="n">
-        <v>20.55868221764227</v>
+        <v>15.95446558932526</v>
       </c>
       <c r="D6" t="n">
-        <v>13.6131814684388</v>
+        <v>15.95446558932526</v>
       </c>
       <c r="E6" t="n">
-        <v>13.6131814684388</v>
+        <v>10.56444343076943</v>
       </c>
       <c r="F6" t="n">
-        <v>13.6131814684388</v>
+        <v>5.174421272213599</v>
       </c>
       <c r="G6" t="n">
-        <v>13.6131814684388</v>
+        <v>5.174421272213599</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>5.174421272213599</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="L6" t="n">
-        <v>5.331414142957085</v>
+        <v>5.496205595079378</v>
       </c>
       <c r="M6" t="n">
-        <v>12.13869942725141</v>
+        <v>10.77896631267995</v>
       </c>
       <c r="N6" t="n">
-        <v>18.94598471154573</v>
+        <v>16.06172703028052</v>
       </c>
       <c r="O6" t="n">
-        <v>25.75326999584005</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="P6" t="n">
-        <v>25.75326999584005</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.50418296684575</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>15.95446558932526</v>
       </c>
       <c r="X6" t="n">
-        <v>20.55868221764227</v>
+        <v>15.95446558932526</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.55868221764227</v>
+        <v>15.95446558932526</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.667680719235332</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="C7" t="n">
-        <v>6.667680719235332</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="D7" t="n">
-        <v>6.667680719235332</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="E7" t="n">
-        <v>6.667680719235332</v>
+        <v>11.20693407206928</v>
       </c>
       <c r="F7" t="n">
-        <v>6.667680719235332</v>
+        <v>5.816911913513453</v>
       </c>
       <c r="G7" t="n">
-        <v>6.667680719235332</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="K7" t="n">
-        <v>7.357368943631237</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="L7" t="n">
-        <v>14.16465422792556</v>
+        <v>0.4268897549576218</v>
       </c>
       <c r="M7" t="n">
-        <v>20.69689768255142</v>
+        <v>5.709650472558192</v>
       </c>
       <c r="N7" t="n">
-        <v>20.69689768255142</v>
+        <v>10.99241119015876</v>
       </c>
       <c r="O7" t="n">
-        <v>27.50418296684575</v>
+        <v>16.27517190775933</v>
       </c>
       <c r="P7" t="n">
-        <v>27.50418296684575</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="R7" t="n">
-        <v>13.6131814684388</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="S7" t="n">
-        <v>13.6131814684388</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="T7" t="n">
-        <v>13.6131814684388</v>
+        <v>21.34448774788109</v>
       </c>
       <c r="U7" t="n">
-        <v>13.6131814684388</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6131814684388</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="W7" t="n">
-        <v>13.6131814684388</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="X7" t="n">
-        <v>6.667680719235332</v>
+        <v>16.59695623062511</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.667680719235332</v>
+        <v>16.59695623062511</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F8" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G8" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H8" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
@@ -4807,16 +4807,16 @@
         <v>7.357368943631237</v>
       </c>
       <c r="K8" t="n">
-        <v>14.16465422792556</v>
+        <v>9.372948656690653</v>
       </c>
       <c r="L8" t="n">
-        <v>14.16465422792556</v>
+        <v>9.372948656690653</v>
       </c>
       <c r="M8" t="n">
-        <v>20.97193951221988</v>
+        <v>16.18023394098498</v>
       </c>
       <c r="N8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
         <v>27.50418296684575</v>
@@ -4828,28 +4828,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C9" t="n">
         <v>0.5500836593369149</v>
@@ -4895,7 +4895,7 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
         <v>27.50418296684575</v>
@@ -4907,13 +4907,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
         <v>20.55868221764227</v>
@@ -4922,13 +4922,13 @@
         <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
-        <v>6.667680719235332</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="10">
@@ -4941,22 +4941,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="C10" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="D10" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="F10" t="n">
         <v>21.38658590694733</v>
       </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="E10" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
         <v>0.5500836593369149</v>
@@ -4968,16 +4968,16 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L10" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>20.97193951221988</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
@@ -5035,49 +5035,49 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H11" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K11" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S11" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T11" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U11" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V11" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W11" t="n">
         <v>3175.879079437414</v>
@@ -5117,25 +5117,25 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J12" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="K12" t="n">
-        <v>519.5985603334505</v>
+        <v>388.0214583249805</v>
       </c>
       <c r="L12" t="n">
-        <v>973.3971899277778</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.315654538067</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N12" t="n">
-        <v>2100.171002464469</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O12" t="n">
-        <v>2555.644190323788</v>
+        <v>2474.99885540425</v>
       </c>
       <c r="P12" t="n">
         <v>2555.644190323788</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D13" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J13" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K13" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L13" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M13" t="n">
         <v>1285.552079040893</v>
@@ -5214,10 +5214,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O13" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P13" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q13" t="n">
         <v>2529.521427597205</v>
@@ -5235,10 +5235,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V13" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X13" t="n">
         <v>1211.444469073043</v>
@@ -5266,49 +5266,49 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F14" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G14" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076842</v>
+        <v>337.4933016076824</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951436</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S14" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T14" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U14" t="n">
         <v>3795.851627400162</v>
@@ -5351,10 +5351,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J15" t="n">
         <v>216.5575109835859</v>
@@ -5366,19 +5366,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.315654538067</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N15" t="n">
-        <v>1662.137679823382</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O15" t="n">
-        <v>2168.542634771632</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5427,22 +5427,22 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H16" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J16" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K16" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L16" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M16" t="n">
         <v>1285.552079040893</v>
@@ -5451,10 +5451,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O16" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P16" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q16" t="n">
         <v>2529.521427597205</v>
@@ -5466,19 +5466,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U16" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y16" t="n">
         <v>1022.581387254981</v>
@@ -5491,61 +5491,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796664</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162828</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U17" t="n">
         <v>3795.851627400161</v>
@@ -5554,7 +5554,7 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X17" t="n">
         <v>2834.342818501802</v>
@@ -5588,13 +5588,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="K18" t="n">
         <v>388.0214583249806</v>
@@ -5606,13 +5606,13 @@
         <v>1390.738552529597</v>
       </c>
       <c r="N18" t="n">
-        <v>1840.391293364258</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O18" t="n">
-        <v>2346.796248312508</v>
+        <v>1968.593900456</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2355.695456008155</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749448</v>
       </c>
       <c r="H19" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897936</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042765</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443593</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511622</v>
@@ -5752,10 +5752,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951459</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5770,34 +5770,34 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5840,16 +5840,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538067</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N21" t="n">
-        <v>2100.171002464469</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O21" t="n">
-        <v>2168.542634771632</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P21" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897931</v>
@@ -5910,40 +5910,40 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443625</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902799</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357083</v>
@@ -5952,7 +5952,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5968,7 +5968,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5977,7 +5977,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -5989,28 +5989,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
         <v>4249.020448755811</v>
@@ -6022,10 +6022,10 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
@@ -6077,16 +6077,16 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1381.83934483395</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.171002464469</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O24" t="n">
-        <v>2168.542634771632</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6138,7 +6138,7 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
@@ -6147,7 +6147,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443611</v>
@@ -6235,16 +6235,16 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767228</v>
@@ -6253,22 +6253,22 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
         <v>2476.13298385146</v>
@@ -6317,10 +6317,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1662.137679823382</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
         <v>2555.644190323788</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477714</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609043</v>
+        <v>617.668592060904</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039794</v>
       </c>
       <c r="F28" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315375</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749438</v>
+        <v>251.2943450749432</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897925</v>
+        <v>140.0574709897919</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6405,13 +6405,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127668</v>
@@ -6420,16 +6420,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6448,10 +6448,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162839</v>
@@ -6493,22 +6493,22 @@
         <v>4188.091007924549</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6554,10 +6554,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1662.137679823382</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
         <v>2555.644190323788</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315378</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749436</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897924</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
         <v>857.3827676902786</v>
@@ -6645,10 +6645,10 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127668</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162837</v>
@@ -6700,13 +6700,13 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
         <v>2001.213713746738</v>
@@ -6715,13 +6715,13 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612701</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R32" t="n">
         <v>4249.020448755809</v>
@@ -6733,19 +6733,19 @@
         <v>4017.391409283563</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X32" t="n">
         <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="33">
@@ -6861,16 +6861,16 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443593</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040891</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354971</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313934</v>
@@ -6922,13 +6922,13 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511619</v>
@@ -6937,22 +6937,22 @@
         <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K35" t="n">
         <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612702</v>
@@ -6964,7 +6964,7 @@
         <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T35" t="n">
         <v>4017.391409283563</v>
@@ -7028,10 +7028,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7071,73 +7071,73 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039794</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315379</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897929</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042737</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443566</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902742</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040889</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354969</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313932</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028685</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597202</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352539</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237499</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357081</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645589</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.58138725498</v>
@@ -7162,10 +7162,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162836</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511619</v>
@@ -7180,22 +7180,22 @@
         <v>766.6831886951447</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
         <v>4249.020448755809</v>
@@ -7207,10 +7207,10 @@
         <v>4017.391409283563</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W38" t="n">
         <v>3175.879079437413</v>
@@ -7219,7 +7219,7 @@
         <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="39">
@@ -7265,10 +7265,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7308,73 +7308,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502093</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C40" t="n">
-        <v>735.855734147771</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039795</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749441</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H40" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897929</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042753</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443581</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902756</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.55207904089</v>
+        <v>1285.552079040889</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.71920135497</v>
+        <v>1709.719201354969</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313933</v>
+        <v>2087.878830313932</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028686</v>
+        <v>2392.455631028685</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597202</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352539</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966193</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127666</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237499</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357081</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645589</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.58138725498</v>
@@ -7399,10 +7399,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511622</v>
@@ -7411,10 +7411,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7426,13 +7426,13 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R41" t="n">
         <v>4249.020448755811</v>
@@ -7502,10 +7502,10 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
         <v>2555.644190323788</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
@@ -7575,7 +7575,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7584,7 +7584,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
         <v>2392.455631028688</v>
@@ -7642,16 +7642,16 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7666,34 +7666,34 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
@@ -7733,16 +7733,16 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N45" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
         <v>2555.644190323788</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443611</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7827,7 +7827,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352542</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>76.29258029502724</v>
+        <v>76.08005906891884</v>
       </c>
       <c r="K5" t="n">
-        <v>63.09177251972511</v>
+        <v>62.77325829223327</v>
       </c>
       <c r="L5" t="n">
-        <v>47.87246158137233</v>
+        <v>40.60127077550266</v>
       </c>
       <c r="M5" t="n">
-        <v>20.50312677537545</v>
+        <v>18.52352795045542</v>
       </c>
       <c r="N5" t="n">
-        <v>15.78539465933494</v>
+        <v>13.86090057654826</v>
       </c>
       <c r="O5" t="n">
-        <v>29.02118971749243</v>
+        <v>27.05937533132331</v>
       </c>
       <c r="P5" t="n">
-        <v>53.74986385444203</v>
+        <v>53.38979000397683</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.02324928331774</v>
+        <v>94.08897075423209</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>64.44726438640423</v>
+        <v>64.32068820005023</v>
       </c>
       <c r="K6" t="n">
-        <v>31.2063724466944</v>
+        <v>30.99003358345706</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>7.872945413584361</v>
+        <v>7.617113557984297</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.45488519533772</v>
+        <v>55.51526941435327</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>71.56745333996726</v>
+        <v>64.56091285119699</v>
       </c>
       <c r="L7" t="n">
-        <v>59.45089852850056</v>
+        <v>52.40786443832276</v>
       </c>
       <c r="M7" t="n">
-        <v>58.73984147329071</v>
+        <v>57.30167189855405</v>
       </c>
       <c r="N7" t="n">
-        <v>42.96490982648649</v>
+        <v>48.12915241468984</v>
       </c>
       <c r="O7" t="n">
-        <v>67.07936567259937</v>
+        <v>65.3806834697932</v>
       </c>
       <c r="P7" t="n">
-        <v>70.76885694323157</v>
+        <v>75.75353275795423</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8455,7 +8455,7 @@
         <v>76.62851785335792</v>
       </c>
       <c r="K8" t="n">
-        <v>60.16589144270026</v>
+        <v>55.32578480508924</v>
       </c>
       <c r="L8" t="n">
         <v>28.83625887535973</v>
@@ -8464,10 +8464,10 @@
         <v>6.972609141182829</v>
       </c>
       <c r="N8" t="n">
-        <v>2.035939104100422</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.161922983629779</v>
+        <v>16.03796872534122</v>
       </c>
       <c r="P8" t="n">
         <v>42.66898511507466</v>
@@ -8616,19 +8616,19 @@
         <v>67.55162029234334</v>
       </c>
       <c r="L10" t="n">
-        <v>54.31201483046912</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M10" t="n">
-        <v>53.59942916834656</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N10" t="n">
         <v>44.27373665789698</v>
       </c>
       <c r="O10" t="n">
-        <v>55.31770395088348</v>
+        <v>62.19374969259492</v>
       </c>
       <c r="P10" t="n">
-        <v>66.5883684560963</v>
+        <v>73.46441419780774</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-6.785959160214555e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.008970684779342e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22795,10 +22795,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.539923804741164</v>
       </c>
       <c r="G5" t="n">
-        <v>7.192466536154623</v>
+        <v>8.729886372046662</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.074784788419493e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.840305685618659e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>643929.1069317908</v>
+        <v>643250.419191926</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>627980.2066984589</v>
+        <v>627980.2066984586</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>627980.2066984589</v>
+        <v>627980.2066984586</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>627980.2066984589</v>
+        <v>627980.206698459</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>627980.2066984589</v>
+        <v>627980.2066984588</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>819365.5024424343</v>
       </c>
       <c r="C2" t="n">
-        <v>820469.2495280063</v>
+        <v>820224.292974211</v>
       </c>
       <c r="D2" t="n">
-        <v>820475.3832573553</v>
+        <v>820475.3832573554</v>
       </c>
       <c r="E2" t="n">
+        <v>821041.7698642829</v>
+      </c>
+      <c r="F2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="F2" t="n">
-        <v>821041.7698642835</v>
-      </c>
       <c r="G2" t="n">
-        <v>821041.7698642844</v>
+        <v>821041.769864283</v>
       </c>
       <c r="H2" t="n">
         <v>821041.7698642845</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.769864284</v>
+        <v>821041.7698642839</v>
       </c>
       <c r="J2" t="n">
         <v>821041.769864284</v>
@@ -26343,19 +26343,19 @@
         <v>821041.769864284</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642844</v>
+        <v>821041.7698642843</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.769864284</v>
+        <v>821041.7698642841</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>268497.8903749795</v>
       </c>
       <c r="C3" t="n">
-        <v>28061.49787655172</v>
+        <v>28131.1732482515</v>
       </c>
       <c r="D3" t="n">
-        <v>16415.66152288853</v>
+        <v>16360.58010233914</v>
       </c>
       <c r="E3" t="n">
         <v>1105223.466315349</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>7.105427357601002e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25288.16188177113</v>
+        <v>25288.16188177111</v>
       </c>
       <c r="K3" t="n">
-        <v>1769.674140452935</v>
+        <v>1373.347030674252</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>389.7408556657405</v>
       </c>
       <c r="M3" t="n">
-        <v>263004.6848749183</v>
+        <v>263004.6848749182</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>25288.16188177116</v>
+        <v>25288.16188177111</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>366548.5230896528</v>
       </c>
       <c r="C4" t="n">
-        <v>358677.9958840009</v>
+        <v>358515.7426070551</v>
       </c>
       <c r="D4" t="n">
         <v>353542.7788371934</v>
       </c>
       <c r="E4" t="n">
+        <v>44009.48294107155</v>
+      </c>
+      <c r="F4" t="n">
+        <v>44009.48294107153</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44009.4829410716</v>
+      </c>
+      <c r="H4" t="n">
+        <v>44009.48294107159</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44009.48294107158</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44009.48294107158</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44009.48294107165</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44009.48294107163</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44009.48294107162</v>
+      </c>
+      <c r="N4" t="n">
+        <v>44009.48294107162</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44009.48294107163</v>
+      </c>
+      <c r="P4" t="n">
         <v>44009.48294107156</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44009.48294107156</v>
-      </c>
-      <c r="G4" t="n">
-        <v>44009.48294107162</v>
-      </c>
-      <c r="H4" t="n">
-        <v>44009.48294107156</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44009.4829410716</v>
-      </c>
-      <c r="J4" t="n">
-        <v>44009.48294107155</v>
-      </c>
-      <c r="K4" t="n">
-        <v>44009.48294107166</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44009.48294107158</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44009.48294107168</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44009.48294107159</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44009.48294107159</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44009.48294107163</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>39701.87879260092</v>
       </c>
       <c r="C5" t="n">
-        <v>40738.55848649647</v>
+        <v>40658.5095162448</v>
       </c>
       <c r="D5" t="n">
         <v>41156.4187984472</v>
       </c>
       <c r="E5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="F5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="H5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="F5" t="n">
-        <v>95106.43410215527</v>
-      </c>
-      <c r="G5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
@@ -26511,7 +26511,7 @@
         <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215525</v>
       </c>
     </row>
     <row r="6">
@@ -26521,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144575.3034996549</v>
+        <v>144613.0195166465</v>
       </c>
       <c r="C6" t="n">
-        <v>392976.8842725503</v>
+        <v>392916.8239104344</v>
       </c>
       <c r="D6" t="n">
-        <v>409346.3644336529</v>
+        <v>409414.1895528584</v>
       </c>
       <c r="E6" t="n">
-        <v>-423297.6134942929</v>
+        <v>-423297.613494293</v>
       </c>
       <c r="F6" t="n">
+        <v>681925.8528210565</v>
+      </c>
+      <c r="G6" t="n">
+        <v>681925.8528210561</v>
+      </c>
+      <c r="H6" t="n">
+        <v>681925.8528210577</v>
+      </c>
+      <c r="I6" t="n">
         <v>681925.852821057</v>
-      </c>
-      <c r="G6" t="n">
-        <v>681925.8528210574</v>
-      </c>
-      <c r="H6" t="n">
-        <v>681925.8528210579</v>
-      </c>
-      <c r="I6" t="n">
-        <v>681925.8528210571</v>
       </c>
       <c r="J6" t="n">
         <v>656637.690939286</v>
       </c>
       <c r="K6" t="n">
-        <v>680156.1786806041</v>
+        <v>680552.5057903829</v>
       </c>
       <c r="L6" t="n">
-        <v>681925.8528210568</v>
+        <v>681536.1119653918</v>
       </c>
       <c r="M6" t="n">
         <v>418921.1679461392</v>
@@ -26560,10 +26560,10 @@
         <v>681925.8528210568</v>
       </c>
       <c r="O6" t="n">
-        <v>656637.6909392849</v>
+        <v>656637.6909392853</v>
       </c>
       <c r="P6" t="n">
-        <v>681925.8528210571</v>
+        <v>681925.8528210572</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I2" t="n">
         <v>31.61020235221394</v>
@@ -26712,22 +26712,22 @@
         <v>31.61020235221391</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L2" t="n">
+        <v>31.61020235221404</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221402</v>
       </c>
-      <c r="M2" t="n">
-        <v>31.61020235221413</v>
-      </c>
       <c r="N2" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="3">
@@ -26740,7 +26740,7 @@
         <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>307.0135277706615</v>
+        <v>307.6363900218813</v>
       </c>
       <c r="D3" t="n">
         <v>326.1814319885848</v>
@@ -26792,16 +26792,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="D4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="F4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>8.881784197001252e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,22 +26931,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>1.84741111297626e-13</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221382</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>28.37688590823392</v>
+        <v>28.9997481594537</v>
       </c>
       <c r="D3" t="n">
-        <v>19.16790421792326</v>
+        <v>18.54504196670348</v>
       </c>
       <c r="E3" t="n">
-        <v>951.9784386315382</v>
+        <v>951.978438631538</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.539923804741164</v>
       </c>
       <c r="E4" t="n">
         <v>1055.379066447241</v>
@@ -27038,10 +27038,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741712005</v>
+        <v>5.3361219369705</v>
       </c>
       <c r="L4" t="n">
-        <v>-6.132837520421188e-13</v>
+        <v>1.539923804740738</v>
       </c>
       <c r="M4" t="n">
         <v>1055.379066447241</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>8.881784197001252e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27260,10 +27260,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.539923804741164</v>
       </c>
       <c r="M4" t="n">
         <v>1055.379066447241</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>349.3469196837127</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>326.8347929045861</v>
+        <v>326.80914913361</v>
       </c>
       <c r="I5" t="n">
-        <v>162.8934211105931</v>
+        <v>162.7968868515372</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>72.33971688055141</v>
+        <v>72.18242694733257</v>
       </c>
       <c r="S5" t="n">
-        <v>180.8951619919782</v>
+        <v>180.8381028018288</v>
       </c>
       <c r="T5" t="n">
-        <v>217.6930285879864</v>
+        <v>217.6820674643493</v>
       </c>
       <c r="U5" t="n">
-        <v>251.246914888855</v>
+        <v>251.246714571347</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>343.1845476281136</v>
+        <v>344.5409125153296</v>
       </c>
       <c r="X5" t="n">
-        <v>362.8550549367576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,22 +27700,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>152.3089585184307</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>139.7330904564136</v>
       </c>
       <c r="G6" t="n">
-        <v>136.6831484431002</v>
+        <v>136.6818087016541</v>
       </c>
       <c r="H6" t="n">
-        <v>99.80125156086687</v>
+        <v>105.8447335683061</v>
       </c>
       <c r="I6" t="n">
-        <v>59.78420793046125</v>
+        <v>61.91407040714516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>52.2810006833705</v>
+        <v>59.07386493424923</v>
       </c>
       <c r="S6" t="n">
-        <v>159.4171117631892</v>
+        <v>159.3922266534353</v>
       </c>
       <c r="T6" t="n">
-        <v>197.5029793361307</v>
+        <v>197.4975792379338</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8979367704412</v>
+        <v>225.8978486295566</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>246.3588612239493</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>141.0978407095989</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>140.084926085961</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4373484067412</v>
+        <v>162.1001032755474</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2484689565056</v>
+        <v>157.2949038280724</v>
       </c>
       <c r="I7" t="n">
-        <v>138.8012823065148</v>
+        <v>138.7675047929569</v>
       </c>
       <c r="J7" t="n">
-        <v>54.21747183023943</v>
+        <v>54.13806199863719</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.92695481661305</v>
+        <v>39.70894835839031</v>
       </c>
       <c r="R7" t="n">
-        <v>145.5240848427746</v>
+        <v>152.3496276878543</v>
       </c>
       <c r="S7" t="n">
-        <v>214.3683204511303</v>
+        <v>214.3487462390715</v>
       </c>
       <c r="T7" t="n">
-        <v>225.5800753618518</v>
+        <v>225.5752762592604</v>
       </c>
       <c r="U7" t="n">
-        <v>286.288831304579</v>
+        <v>281.5887138373561</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27873,7 +27873,7 @@
         <v>326.0456339133427</v>
       </c>
       <c r="I8" t="n">
-        <v>153.8662638308958</v>
+        <v>153.0466391784838</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.62324555761737</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S8" t="n">
         <v>179.1392278518137</v>
@@ -27909,7 +27909,7 @@
         <v>217.3557120022016</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2407503367447</v>
+        <v>245.1843292474453</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>166.6520778990163</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.59722706556381</v>
+        <v>49.72118132385237</v>
       </c>
       <c r="S9" t="n">
         <v>158.6512997408977</v>
@@ -27988,16 +27988,16 @@
         <v>197.336797223147</v>
       </c>
       <c r="U9" t="n">
-        <v>219.0191785894537</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V9" t="n">
         <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>199.7165641141781</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>161.1904000093284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5450022812198</v>
+        <v>139.3646269336318</v>
       </c>
       <c r="G10" t="n">
         <v>160.5267375918499</v>
       </c>
       <c r="H10" t="n">
-        <v>156.9975751224423</v>
+        <v>150.1215293807308</v>
       </c>
       <c r="I10" t="n">
-        <v>137.761816287615</v>
+        <v>130.8857705459036</v>
       </c>
       <c r="J10" t="n">
         <v>51.77372115642321</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I14" t="n">
         <v>12.38037836605497</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J16" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221196</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221528</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221326</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="23">
@@ -29222,7 +29222,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221375</v>
       </c>
       <c r="L25" t="n">
         <v>31.61020235221394</v>
@@ -29237,7 +29237,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221417</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q25" t="n">
         <v>31.61020235221394</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221199</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221122</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221404</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235220911</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.6102023522119</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221413</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221072</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235220928</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221405</v>
+        <v>31.61020235221411</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.23422523726899</v>
+        <v>1.236729206118115</v>
       </c>
       <c r="H5" t="n">
-        <v>12.64000921118105</v>
+        <v>12.66565298215715</v>
       </c>
       <c r="I5" t="n">
-        <v>47.58246845981279</v>
+        <v>47.67900271886867</v>
       </c>
       <c r="J5" t="n">
-        <v>104.7533242316591</v>
+        <v>104.9658454577674</v>
       </c>
       <c r="K5" t="n">
-        <v>156.9980785252554</v>
+        <v>157.3165927527473</v>
       </c>
       <c r="L5" t="n">
-        <v>194.7699991303263</v>
+        <v>195.1651441944846</v>
       </c>
       <c r="M5" t="n">
-        <v>216.7191521936087</v>
+        <v>217.1588272137876</v>
       </c>
       <c r="N5" t="n">
-        <v>220.2258946489993</v>
+        <v>220.6726840706707</v>
       </c>
       <c r="O5" t="n">
-        <v>207.9530674459057</v>
+        <v>208.3749580273337</v>
       </c>
       <c r="P5" t="n">
-        <v>177.4831319008275</v>
+        <v>177.8432057512927</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.2824405911317</v>
+        <v>133.5528410571877</v>
       </c>
       <c r="R5" t="n">
-        <v>77.52940106059827</v>
+        <v>77.68669099381711</v>
       </c>
       <c r="S5" t="n">
-        <v>28.12490759426714</v>
+        <v>28.18196678441657</v>
       </c>
       <c r="T5" t="n">
-        <v>5.402820976145008</v>
+        <v>5.41378209978205</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0987380189815192</v>
+        <v>0.09893833648944918</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6603687201104795</v>
+        <v>0.6617084615564994</v>
       </c>
       <c r="H6" t="n">
-        <v>6.377771586330159</v>
+        <v>6.390710668190404</v>
       </c>
       <c r="I6" t="n">
-        <v>22.73637917924239</v>
+        <v>22.7825062421865</v>
       </c>
       <c r="J6" t="n">
-        <v>62.39036228026247</v>
+        <v>62.51693846661647</v>
       </c>
       <c r="K6" t="n">
-        <v>106.6350665276646</v>
+        <v>106.8514053909019</v>
       </c>
       <c r="L6" t="n">
-        <v>143.3840065310057</v>
+        <v>143.6749008305022</v>
       </c>
       <c r="M6" t="n">
-        <v>149.0100796637298</v>
+        <v>147.4701558589886</v>
       </c>
       <c r="N6" t="n">
-        <v>138.2177578250447</v>
+        <v>136.6778340203036</v>
       </c>
       <c r="O6" t="n">
-        <v>149.4722901861559</v>
+        <v>147.9323663814147</v>
       </c>
       <c r="P6" t="n">
-        <v>126.1014620007459</v>
+        <v>126.3572938563459</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.2954878512956</v>
+        <v>84.46650467166825</v>
       </c>
       <c r="R6" t="n">
-        <v>41.0007877275612</v>
+        <v>41.0839692183939</v>
       </c>
       <c r="S6" t="n">
-        <v>12.26605934064859</v>
+        <v>12.29094445040251</v>
       </c>
       <c r="T6" t="n">
-        <v>2.661749358690923</v>
+        <v>2.667149456887819</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0434453105335842</v>
+        <v>0.04353345141819077</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5536309517175864</v>
+        <v>0.5547541459410974</v>
       </c>
       <c r="H7" t="n">
-        <v>4.922282461634544</v>
+        <v>4.932268679367215</v>
       </c>
       <c r="I7" t="n">
-        <v>16.64919262074342</v>
+        <v>16.68297013430137</v>
       </c>
       <c r="J7" t="n">
-        <v>39.14170828643335</v>
+        <v>39.22111811803558</v>
       </c>
       <c r="K7" t="n">
-        <v>64.32185057227956</v>
+        <v>64.45234531933839</v>
       </c>
       <c r="L7" t="n">
-        <v>82.30982349444916</v>
+        <v>82.47681184291552</v>
       </c>
       <c r="M7" t="n">
-        <v>86.78416818605763</v>
+        <v>86.96023398602128</v>
       </c>
       <c r="N7" t="n">
-        <v>84.7206346387467</v>
+        <v>84.89251398751362</v>
       </c>
       <c r="O7" t="n">
-        <v>78.25321852095486</v>
+        <v>78.41197691901986</v>
       </c>
       <c r="P7" t="n">
-        <v>66.95914710591605</v>
+        <v>67.09499234182142</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.35904269336989</v>
+        <v>46.45309489330408</v>
       </c>
       <c r="R7" t="n">
-        <v>24.89326079268347</v>
+        <v>24.94376368931515</v>
       </c>
       <c r="S7" t="n">
-        <v>9.648277585841933</v>
+        <v>9.667851797900758</v>
       </c>
       <c r="T7" t="n">
-        <v>2.365514066429686</v>
+        <v>2.370313169021052</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03019805191186838</v>
+        <v>0.03025931705133262</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31615,10 +31615,10 @@
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>138.2177578250447</v>
+        <v>137.9399377950766</v>
       </c>
       <c r="O9" t="n">
-        <v>149.1944701561877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H11" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I11" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L11" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N11" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O11" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R11" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S11" t="n">
         <v>117.0897208110796</v>
@@ -31794,7 +31794,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H12" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J12" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L12" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M12" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N12" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O12" t="n">
-        <v>602.6701715750696</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>215.4343416764904</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T12" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31919,10 +31919,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J13" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K13" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L13" t="n">
         <v>342.6725659692048</v>
@@ -31934,22 +31934,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O13" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P13" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R13" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S13" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -32086,22 +32086,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578283</v>
+        <v>530.1489483592454</v>
       </c>
       <c r="P15" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486996</v>
@@ -32326,16 +32326,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>585.5363997951121</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>341.9501925866608</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32560,19 +32560,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>554.7018671605765</v>
       </c>
       <c r="N21" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>211.6584993001651</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32797,19 +32797,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>554.7018671605765</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>211.6584993001651</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33037,13 +33037,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>272.5760810583997</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33274,13 +33274,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>272.5760810583997</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33748,13 +33748,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33985,13 +33985,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34222,13 +34222,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H44" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I44" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L44" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117591</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972011</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R44" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34441,31 +34441,31 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H45" t="n">
-        <v>26.55196259533501</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J45" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M45" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5760810583997</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H46" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I46" t="n">
-        <v>69.31398118051422</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J46" t="n">
         <v>162.9549067838146</v>
@@ -34532,31 +34532,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L46" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M46" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N46" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P46" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q46" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R46" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S46" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34941,22 +34941,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="N5" t="n">
-        <v>6.598225711743297</v>
+        <v>5.120521050628037</v>
       </c>
       <c r="O5" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.829626751131485</v>
+        <v>5.120521050628042</v>
       </c>
       <c r="M6" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="N6" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="O6" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.768598960611811</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.598225711743297</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="O7" t="n">
-        <v>6.876045741711437</v>
+        <v>5.336121936970272</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.120521050628037</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
-        <v>6.876045741711437</v>
+        <v>2.03593910410042</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>6.598225711743297</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="O10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L11" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N11" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P11" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R11" t="n">
         <v>107.1851555440239</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L12" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M12" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O12" t="n">
-        <v>460.0739271306251</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>81.45993426216013</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K13" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L13" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M13" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N13" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O13" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P13" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q13" t="n">
         <v>138.4502995641581</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116848</v>
+        <v>255.0635279116831</v>
       </c>
       <c r="K14" t="n">
         <v>433.5251384721831</v>
@@ -35734,22 +35734,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133839</v>
+        <v>387.552703914801</v>
       </c>
       <c r="P15" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K16" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L16" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M16" t="n">
         <v>432.4942538895098</v>
@@ -35974,16 +35974,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>454.1946877117788</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>201.9684185006393</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193538</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
         <v>277.1256801414978</v>
@@ -36050,19 +36050,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>412.5678332385582</v>
       </c>
       <c r="N21" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>69.06225485572071</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414991</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553052</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K23" t="n">
         <v>433.5251384721831</v>
@@ -36381,7 +36381,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>412.5678332385582</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>69.06225485572071</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414975</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
@@ -36533,7 +36533,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36600,7 +36600,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169886</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
         <v>671.8997542381569</v>
@@ -36615,7 +36615,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227526</v>
       </c>
       <c r="R26" t="n">
         <v>107.1851555440239</v>
@@ -36685,13 +36685,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>141.2343689750664</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O27" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>141.2343689750664</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37001,13 +37001,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
         <v>138.4502995641581</v>
@@ -37092,7 +37092,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440229</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>101.2059290193559</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414958</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895071</v>
       </c>
       <c r="N34" t="n">
         <v>428.4516387010908</v>
@@ -37244,7 +37244,7 @@
         <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q34" t="n">
         <v>138.4502995641582</v>
@@ -37396,13 +37396,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.205929019351</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553038</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169867</v>
       </c>
       <c r="M38" t="n">
         <v>671.8997542381569</v>
@@ -37566,7 +37566,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440229</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193526</v>
+        <v>101.205929019356</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414979</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895052</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010909</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908714</v>
       </c>
       <c r="P40" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641583</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721831</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P44" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N45" t="n">
-        <v>141.2343689750664</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
